--- a/eval/function_setting.xlsx
+++ b/eval/function_setting.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7ACE6A0-48A5-45DB-8221-C41F4321A684}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049997E8-90B9-412A-82D2-908887ED55FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="14">
   <si>
     <t>setting</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,15 +62,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>permute</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>trad_single</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>unit_double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>permutation_write</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>permutation_write_node</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,18 +400,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -416,10 +420,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -433,16 +437,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -450,16 +454,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -467,16 +471,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -484,16 +488,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -501,16 +505,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -518,16 +522,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -535,16 +539,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -552,16 +556,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -569,16 +573,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -586,16 +590,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -603,16 +607,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -620,16 +624,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -637,16 +641,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -654,16 +658,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -671,16 +675,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -688,20 +692,293 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>